--- a/data/sim_res.xlsx
+++ b/data/sim_res.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC857"/>
+  <dimension ref="A1:AC851"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -40754,7 +40754,7 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>https://doi.org/https://doi.org/10.1037/met0000435</t>
+          <t>https://doi.org/10.1037/met0000435</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
@@ -45818,7 +45818,7 @@
       </c>
       <c r="P719" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>missing proportion (per method/condition)</t>
         </is>
       </c>
       <c r="Q719" t="inlineStr">
@@ -45887,11 +45887,11 @@
         <v>2022</v>
       </c>
       <c r="C720">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000366</t>
+          <t>https://doi.org/10.1037/met0000370</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
@@ -45911,20 +45911,20 @@
       </c>
       <c r="H720" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I720" t="b">
         <v>0</v>
       </c>
       <c r="J720" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K720" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L720" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M720" t="b">
         <v>0</v>
@@ -45932,59 +45932,14 @@
       <c r="N720" t="b">
         <v>0</v>
       </c>
-      <c r="P720" t="inlineStr">
-        <is>
-          <t>not quantified</t>
-        </is>
-      </c>
-      <c r="R720" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="S720" t="inlineStr">
-        <is>
-          <t>changed DGM for some cases to prevent errors</t>
-        </is>
-      </c>
-      <c r="T720" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="U720" t="inlineStr">
-        <is>
-          <t>adaptation of DGM to prevent errors for some cases</t>
-        </is>
-      </c>
-      <c r="V720" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="X720" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
-      </c>
       <c r="Z720" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AA720" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AB720" t="inlineStr">
-        <is>
-          <t>example for "contamination"</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AC720" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -45993,11 +45948,11 @@
         <v>2022</v>
       </c>
       <c r="C721">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000365</t>
+          <t>https://doi.org/10.1037/met0000393</t>
         </is>
       </c>
       <c r="E721" t="inlineStr">
@@ -46012,26 +45967,91 @@
       </c>
       <c r="G721" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="I721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M721" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N721" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="P721" t="inlineStr">
+        <is>
+          <t>missing proportion (per method/condition)</t>
+        </is>
+      </c>
+      <c r="Q721" t="inlineStr">
+        <is>
+          <t>missingness was outcome</t>
+        </is>
+      </c>
+      <c r="R721" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="T721" t="inlineStr">
+        <is>
+          <t>case-wise deletion</t>
+        </is>
+      </c>
+      <c r="U721" t="inlineStr">
+        <is>
+          <t>number of successful analyses was outcome</t>
+        </is>
+      </c>
+      <c r="V721" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="W721" t="inlineStr">
+        <is>
+          <t>number of successful analyses was outcome</t>
+        </is>
+      </c>
+      <c r="X721" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="Y721" t="inlineStr">
+        <is>
+          <t>number of successful analyses was outcome</t>
+        </is>
+      </c>
+      <c r="Z721" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AA721" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AB721" t="inlineStr">
+        <is>
+          <t>Nice classification of different types of missingness</t>
+        </is>
       </c>
       <c r="AC721" t="inlineStr">
         <is>
@@ -46044,11 +46064,11 @@
         <v>2022</v>
       </c>
       <c r="C722">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000362</t>
+          <t>https://doi.org/10.1037/met0000358</t>
         </is>
       </c>
       <c r="E722" t="inlineStr">
@@ -46063,7 +46083,12 @@
       </c>
       <c r="G722" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="I722" t="b">
@@ -46073,16 +46098,66 @@
         <v>0</v>
       </c>
       <c r="K722" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L722" t="b">
         <v>0</v>
       </c>
       <c r="M722" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N722" t="b">
         <v>0</v>
+      </c>
+      <c r="P722" t="inlineStr">
+        <is>
+          <t>missing proportion (per method/condition)</t>
+        </is>
+      </c>
+      <c r="Q722" t="inlineStr">
+        <is>
+          <t>convergence was performance measure</t>
+        </is>
+      </c>
+      <c r="R722" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="T722" t="inlineStr">
+        <is>
+          <t>case-wise deletion</t>
+        </is>
+      </c>
+      <c r="U722" t="inlineStr">
+        <is>
+          <t>convergence was performance measure</t>
+        </is>
+      </c>
+      <c r="V722" t="inlineStr">
+        <is>
+          <t>unclear</t>
+        </is>
+      </c>
+      <c r="W722" t="inlineStr">
+        <is>
+          <t>convergence was performance measure</t>
+        </is>
+      </c>
+      <c r="X722" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="Y722" t="inlineStr">
+        <is>
+          <t>convergence was performance measure</t>
+        </is>
+      </c>
+      <c r="Z722" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="AC722" t="inlineStr">
         <is>
@@ -46095,11 +46170,11 @@
         <v>2022</v>
       </c>
       <c r="C723">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000377</t>
+          <t>https://doi.org/10.1037/met0000380</t>
         </is>
       </c>
       <c r="E723" t="inlineStr">
@@ -46114,11 +46189,6 @@
       </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H723" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -46139,16 +46209,6 @@
       </c>
       <c r="N723" t="b">
         <v>0</v>
-      </c>
-      <c r="Z723" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AC723" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="724">
@@ -46156,11 +46216,11 @@
         <v>2022</v>
       </c>
       <c r="C724">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000406</t>
+          <t>https://doi.org/10.1037/met0000386</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
@@ -46203,12 +46263,12 @@
       </c>
       <c r="Z724" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AC724" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -46217,11 +46277,11 @@
         <v>2022</v>
       </c>
       <c r="C725">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000416</t>
+          <t>https://doi.org/10.1037/met0000403</t>
         </is>
       </c>
       <c r="E725" t="inlineStr">
@@ -46264,12 +46324,7 @@
       </c>
       <c r="Z725" t="inlineStr">
         <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC725" t="inlineStr">
-        <is>
-          <t>medium</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -46282,7 +46337,7 @@
       </c>
       <c r="D726" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000370</t>
+          <t>https://doi.org/10.1037/met0000440</t>
         </is>
       </c>
       <c r="E726" t="inlineStr">
@@ -46297,7 +46352,7 @@
       </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H726" t="inlineStr">
@@ -46336,19 +46391,19 @@
     </row>
     <row r="727">
       <c r="B727">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C727">
         <v>1</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000393</t>
+          <t>https://doi.org/10.1002/jrsm.1584</t>
         </is>
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>RSM</t>
         </is>
       </c>
       <c r="F727" t="inlineStr">
@@ -46358,113 +46413,43 @@
       </c>
       <c r="G727" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H727" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I727" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J727" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K727" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L727" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M727" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N727" t="b">
-        <v>1</v>
-      </c>
-      <c r="P727" t="inlineStr">
-        <is>
-          <t>missing proportion (per method/condition)</t>
-        </is>
-      </c>
-      <c r="Q727" t="inlineStr">
-        <is>
-          <t>missingness was outcome</t>
-        </is>
-      </c>
-      <c r="R727" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="T727" t="inlineStr">
-        <is>
-          <t>case-wise deletion</t>
-        </is>
-      </c>
-      <c r="U727" t="inlineStr">
-        <is>
-          <t>number of successful analyses was outcome</t>
-        </is>
-      </c>
-      <c r="V727" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="W727" t="inlineStr">
-        <is>
-          <t>number of successful analyses was outcome</t>
-        </is>
-      </c>
-      <c r="X727" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Y727" t="inlineStr">
-        <is>
-          <t>number of successful analyses was outcome</t>
-        </is>
-      </c>
-      <c r="Z727" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AA727" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AB727" t="inlineStr">
-        <is>
-          <t>Nice classification of different types of missingness</t>
-        </is>
-      </c>
-      <c r="AC727" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
       <c r="B728">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C728">
         <v>1</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000358</t>
+          <t>https://doi.org/10.1002/jrsm.1582</t>
         </is>
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>RSM</t>
         </is>
       </c>
       <c r="F728" t="inlineStr">
@@ -46474,12 +46459,7 @@
       </c>
       <c r="G728" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H728" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I728" t="b">
@@ -46489,88 +46469,33 @@
         <v>0</v>
       </c>
       <c r="K728" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L728" t="b">
         <v>0</v>
       </c>
       <c r="M728" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N728" t="b">
         <v>0</v>
-      </c>
-      <c r="P728" t="inlineStr">
-        <is>
-          <t>missing proportion (per method/condition)</t>
-        </is>
-      </c>
-      <c r="Q728" t="inlineStr">
-        <is>
-          <t>convergence was performance measure</t>
-        </is>
-      </c>
-      <c r="R728" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="T728" t="inlineStr">
-        <is>
-          <t>case-wise deletion</t>
-        </is>
-      </c>
-      <c r="U728" t="inlineStr">
-        <is>
-          <t>convergence was performance measure</t>
-        </is>
-      </c>
-      <c r="V728" t="inlineStr">
-        <is>
-          <t>unclear</t>
-        </is>
-      </c>
-      <c r="W728" t="inlineStr">
-        <is>
-          <t>convergence was performance measure</t>
-        </is>
-      </c>
-      <c r="X728" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Y728" t="inlineStr">
-        <is>
-          <t>convergence was performance measure</t>
-        </is>
-      </c>
-      <c r="Z728" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC728" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="729">
       <c r="B729">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C729">
         <v>1</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000380</t>
+          <t>https://doi.org/10.1002/jrsm.1583</t>
         </is>
       </c>
       <c r="E729" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>RSM</t>
         </is>
       </c>
       <c r="F729" t="inlineStr">
@@ -46604,19 +46529,19 @@
     </row>
     <row r="730">
       <c r="B730">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C730">
         <v>1</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000386</t>
+          <t>https://doi.org/10.1002/jrsm.1590</t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>RSM</t>
         </is>
       </c>
       <c r="F730" t="inlineStr">
@@ -46626,11 +46551,6 @@
       </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H730" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -46651,33 +46571,23 @@
       </c>
       <c r="N730" t="b">
         <v>0</v>
-      </c>
-      <c r="Z730" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC730" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
       </c>
     </row>
     <row r="731">
       <c r="B731">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C731">
         <v>1</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000403</t>
+          <t>https://doi.org/10.1002/jrsm.1593</t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>RSM</t>
         </is>
       </c>
       <c r="F731" t="inlineStr">
@@ -46687,11 +46597,6 @@
       </c>
       <c r="G731" t="inlineStr">
         <is>
-          <t>unclear</t>
-        </is>
-      </c>
-      <c r="H731" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -46712,28 +46617,23 @@
       </c>
       <c r="N731" t="b">
         <v>0</v>
-      </c>
-      <c r="Z731" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
       </c>
     </row>
     <row r="732">
       <c r="B732">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C732">
         <v>1</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000440</t>
+          <t>https://doi.org/10.1002/jrsm.1594</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>RSM</t>
         </is>
       </c>
       <c r="F732" t="inlineStr">
@@ -46743,40 +46643,80 @@
       </c>
       <c r="G732" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I732" t="b">
+        <v>0</v>
+      </c>
+      <c r="J732" t="b">
+        <v>0</v>
+      </c>
+      <c r="K732" t="b">
+        <v>1</v>
+      </c>
+      <c r="L732" t="b">
+        <v>1</v>
+      </c>
+      <c r="M732" t="b">
+        <v>0</v>
+      </c>
+      <c r="N732" t="b">
+        <v>0</v>
+      </c>
+      <c r="P732" t="inlineStr">
+        <is>
+          <t>missing proportion (per method)</t>
+        </is>
+      </c>
+      <c r="Q732" t="inlineStr">
+        <is>
+          <t>"However, AK2 failed to converge in over 10% of these simulated meta-analyses." rounded and only specified for one method</t>
+        </is>
+      </c>
+      <c r="R732" t="inlineStr">
+        <is>
           <t>unclear</t>
         </is>
       </c>
-      <c r="H732" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I732" t="b">
-        <v>0</v>
-      </c>
-      <c r="J732" t="b">
-        <v>0</v>
-      </c>
-      <c r="K732" t="b">
-        <v>0</v>
-      </c>
-      <c r="L732" t="b">
-        <v>0</v>
-      </c>
-      <c r="M732" t="b">
-        <v>0</v>
-      </c>
-      <c r="N732" t="b">
-        <v>0</v>
+      <c r="S732" t="inlineStr">
+        <is>
+          <t>"Even when AK2 converges, its MSE in the B&amp;R and CSG&amp;H environments is relatively large." I read this as they only averaged over the converged results.</t>
+        </is>
+      </c>
+      <c r="T732" t="inlineStr">
+        <is>
+          <t>case-wise deletion</t>
+        </is>
+      </c>
+      <c r="U732" t="inlineStr">
+        <is>
+          <t>unclear see comment on Q3</t>
+        </is>
+      </c>
+      <c r="V732" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="Z732" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
+      <c r="AA732" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="AC732" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -46789,7 +46729,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1584</t>
+          <t>https://doi.org/10.1002/jrsm.1585</t>
         </is>
       </c>
       <c r="E733" t="inlineStr">
@@ -46804,7 +46744,12 @@
       </c>
       <c r="G733" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="I733" t="b">
@@ -46814,28 +46759,88 @@
         <v>0</v>
       </c>
       <c r="K733" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L733" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M733" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N733" t="b">
         <v>0</v>
+      </c>
+      <c r="P733" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="Q733" t="inlineStr">
+        <is>
+          <t>min, median and max convergence per model and method. Table in supplemental materials</t>
+        </is>
+      </c>
+      <c r="R733" t="inlineStr">
+        <is>
+          <t>unclear</t>
+        </is>
+      </c>
+      <c r="S733" t="inlineStr">
+        <is>
+          <t>"We calculated performance criteria summarized over the converged results. The full simulation results and the convergence rates are available in the online supplementary materials.20 FIML often failed to find a solution under conditions with small study sizes and/or high proportion of missingness. To resolve this issue, we re-fit the model with different starting values using rerun function in metaSEM R package.42" They mention both: only analysing converged results and re-fitting models.</t>
+        </is>
+      </c>
+      <c r="T733" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="U733" t="inlineStr">
+        <is>
+          <t>The manuscript mentions both case-wise deletion and attempt ant replacement by re-fitting models.</t>
+        </is>
+      </c>
+      <c r="V733" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="W733" t="inlineStr">
+        <is>
+          <t>re-fitting FIML is what is done in practice</t>
+        </is>
+      </c>
+      <c r="X733" t="inlineStr">
+        <is>
+          <t>reasoning</t>
+        </is>
+      </c>
+      <c r="Z733" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AA733" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AC733" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
       </c>
     </row>
     <row r="734">
       <c r="B734">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C734">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1582</t>
+          <t>https://doi.org/10.1002/jrsm.1542</t>
         </is>
       </c>
       <c r="E734" t="inlineStr">
@@ -46874,14 +46879,14 @@
     </row>
     <row r="735">
       <c r="B735">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C735">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1583</t>
+          <t>https://doi.org/10.1002/jrsm.1543</t>
         </is>
       </c>
       <c r="E735" t="inlineStr">
@@ -46920,14 +46925,14 @@
     </row>
     <row r="736">
       <c r="B736">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C736">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1590</t>
+          <t>https://doi.org/10.1002/jrsm.1545</t>
         </is>
       </c>
       <c r="E736" t="inlineStr">
@@ -46966,14 +46971,14 @@
     </row>
     <row r="737">
       <c r="B737">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C737">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1593</t>
+          <t>https://doi.org/10.1002/jrsm.1553</t>
         </is>
       </c>
       <c r="E737" t="inlineStr">
@@ -47012,14 +47017,14 @@
     </row>
     <row r="738">
       <c r="B738">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C738">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1594</t>
+          <t>https://doi.org/10.1002/jrsm.1547</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
@@ -47034,12 +47039,7 @@
       </c>
       <c r="G738" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H738" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I738" t="b">
@@ -47049,78 +47049,28 @@
         <v>0</v>
       </c>
       <c r="K738" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L738" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M738" t="b">
         <v>0</v>
       </c>
       <c r="N738" t="b">
         <v>0</v>
-      </c>
-      <c r="P738" t="inlineStr">
-        <is>
-          <t>missing proportion (per method)</t>
-        </is>
-      </c>
-      <c r="Q738" t="inlineStr">
-        <is>
-          <t>"However, AK2 failed to converge in over 10% of these simulated meta-analyses." rounded and only specified for one method</t>
-        </is>
-      </c>
-      <c r="R738" t="inlineStr">
-        <is>
-          <t>unclear</t>
-        </is>
-      </c>
-      <c r="S738" t="inlineStr">
-        <is>
-          <t>"Even when AK2 converges, its MSE in the B&amp;R and CSG&amp;H environments is relatively large." I read this as they only averaged over the converged results.</t>
-        </is>
-      </c>
-      <c r="T738" t="inlineStr">
-        <is>
-          <t>case-wise deletion</t>
-        </is>
-      </c>
-      <c r="U738" t="inlineStr">
-        <is>
-          <t>unclear see comment on Q3</t>
-        </is>
-      </c>
-      <c r="V738" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="Z738" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AA738" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC738" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
       </c>
     </row>
     <row r="739">
       <c r="B739">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C739">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1585</t>
+          <t>https://doi.org/10.1002/jrsm.1533</t>
         </is>
       </c>
       <c r="E739" t="inlineStr">
@@ -47135,12 +47085,7 @@
       </c>
       <c r="G739" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H739" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I739" t="b">
@@ -47150,76 +47095,16 @@
         <v>0</v>
       </c>
       <c r="K739" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L739" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M739" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N739" t="b">
         <v>0</v>
-      </c>
-      <c r="P739" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Q739" t="inlineStr">
-        <is>
-          <t>min, median and max convergence per model and method. Table in supplemental materials</t>
-        </is>
-      </c>
-      <c r="R739" t="inlineStr">
-        <is>
-          <t>unclear</t>
-        </is>
-      </c>
-      <c r="S739" t="inlineStr">
-        <is>
-          <t>"We calculated performance criteria summarized over the converged results. The full simulation results and the convergence rates are available in the online supplementary materials.20 FIML often failed to find a solution under conditions with small study sizes and/or high proportion of missingness. To resolve this issue, we re-fit the model with different starting values using rerun function in metaSEM R package.42" They mention both: only analysing converged results and re-fitting models.</t>
-        </is>
-      </c>
-      <c r="T739" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="U739" t="inlineStr">
-        <is>
-          <t>The manuscript mentions both case-wise deletion and attempt ant replacement by re-fitting models.</t>
-        </is>
-      </c>
-      <c r="V739" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="W739" t="inlineStr">
-        <is>
-          <t>re-fitting FIML is what is done in practice</t>
-        </is>
-      </c>
-      <c r="X739" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
-      </c>
-      <c r="Z739" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AA739" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AC739" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
       </c>
     </row>
     <row r="740">
@@ -47231,7 +47116,7 @@
       </c>
       <c r="D740" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1542</t>
+          <t>https://doi.org/10.1002/jrsm.1557</t>
         </is>
       </c>
       <c r="E740" t="inlineStr">
@@ -47270,14 +47155,14 @@
     </row>
     <row r="741">
       <c r="B741">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C741">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1543</t>
+          <t>https://doi.org/10.1002/jrsm.1498</t>
         </is>
       </c>
       <c r="E741" t="inlineStr">
@@ -47316,14 +47201,14 @@
     </row>
     <row r="742">
       <c r="B742">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C742">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1545</t>
+          <t>https://doi.org/10.1002/jrsm.1501</t>
         </is>
       </c>
       <c r="E742" t="inlineStr">
@@ -47362,14 +47247,14 @@
     </row>
     <row r="743">
       <c r="B743">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C743">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1553</t>
+          <t>https://doi.org/10.1002/jrsm.1499</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
@@ -47408,14 +47293,14 @@
     </row>
     <row r="744">
       <c r="B744">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C744">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1547</t>
+          <t>https://doi.org/10.1002/jrsm.1488</t>
         </is>
       </c>
       <c r="E744" t="inlineStr">
@@ -47430,6 +47315,11 @@
       </c>
       <c r="G744" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -47450,18 +47340,28 @@
       </c>
       <c r="N744" t="b">
         <v>0</v>
+      </c>
+      <c r="Z744" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC744" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="745">
       <c r="B745">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C745">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1533</t>
+          <t>https://doi.org/10.1002/jrsm.1500</t>
         </is>
       </c>
       <c r="E745" t="inlineStr">
@@ -47500,14 +47400,14 @@
     </row>
     <row r="746">
       <c r="B746">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C746">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1557</t>
+          <t>https://doi.org/10.1002/jrsm.1506</t>
         </is>
       </c>
       <c r="E746" t="inlineStr">
@@ -47522,7 +47422,12 @@
       </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="I746" t="b">
@@ -47532,16 +47437,66 @@
         <v>0</v>
       </c>
       <c r="K746" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L746" t="b">
         <v>0</v>
       </c>
       <c r="M746" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N746" t="b">
         <v>0</v>
+      </c>
+      <c r="P746" t="inlineStr">
+        <is>
+          <t>missing proportion (per method/condition)</t>
+        </is>
+      </c>
+      <c r="Q746" t="inlineStr">
+        <is>
+          <t>number of converged cases per method x condition</t>
+        </is>
+      </c>
+      <c r="R746" t="inlineStr">
+        <is>
+          <t>unclear</t>
+        </is>
+      </c>
+      <c r="S746" t="inlineStr">
+        <is>
+          <t>since they report the number of converged cases I assume that is what they summarized over</t>
+        </is>
+      </c>
+      <c r="T746" t="inlineStr">
+        <is>
+          <t>case-wise deletion</t>
+        </is>
+      </c>
+      <c r="V746" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="Z746" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AA746" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AB746" t="inlineStr">
+        <is>
+          <t>Simple minimalistic way of reporting number of cases converged.</t>
+        </is>
+      </c>
+      <c r="AC746" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="747">
@@ -47553,7 +47508,7 @@
       </c>
       <c r="D747" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1498</t>
+          <t>https://doi.org/10.1002/jrsm.1482</t>
         </is>
       </c>
       <c r="E747" t="inlineStr">
@@ -47568,6 +47523,11 @@
       </c>
       <c r="G747" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -47588,6 +47548,16 @@
       </c>
       <c r="N747" t="b">
         <v>0</v>
+      </c>
+      <c r="Z747" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC747" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="748">
@@ -47595,11 +47565,11 @@
         <v>2021</v>
       </c>
       <c r="C748">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1501</t>
+          <t>https://doi.org/10.1002/jrsm.1424</t>
         </is>
       </c>
       <c r="E748" t="inlineStr">
@@ -47641,11 +47611,11 @@
         <v>2021</v>
       </c>
       <c r="C749">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1499</t>
+          <t>https://doi.org/10.1002/jrsm.1410</t>
         </is>
       </c>
       <c r="E749" t="inlineStr">
@@ -47687,11 +47657,11 @@
         <v>2021</v>
       </c>
       <c r="C750">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1488</t>
+          <t>https://doi.org/10.1002/jrsm.1470</t>
         </is>
       </c>
       <c r="E750" t="inlineStr">
@@ -47706,11 +47676,6 @@
       </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H750" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -47731,16 +47696,6 @@
       </c>
       <c r="N750" t="b">
         <v>0</v>
-      </c>
-      <c r="Z750" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC750" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="751">
@@ -47748,11 +47703,11 @@
         <v>2021</v>
       </c>
       <c r="C751">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1500</t>
+          <t>https://doi.org/10.1002/jrsm.1458</t>
         </is>
       </c>
       <c r="E751" t="inlineStr">
@@ -47794,11 +47749,11 @@
         <v>2021</v>
       </c>
       <c r="C752">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1506</t>
+          <t>https://doi.org/10.1002/jrsm.1439</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
@@ -47813,12 +47768,7 @@
       </c>
       <c r="G752" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H752" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I752" t="b">
@@ -47828,66 +47778,16 @@
         <v>0</v>
       </c>
       <c r="K752" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L752" t="b">
         <v>0</v>
       </c>
       <c r="M752" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N752" t="b">
         <v>0</v>
-      </c>
-      <c r="P752" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Q752" t="inlineStr">
-        <is>
-          <t>number of converged cases per method x condition</t>
-        </is>
-      </c>
-      <c r="R752" t="inlineStr">
-        <is>
-          <t>unclear</t>
-        </is>
-      </c>
-      <c r="S752" t="inlineStr">
-        <is>
-          <t>since they report the number of converged cases I assume that is what they summarized over</t>
-        </is>
-      </c>
-      <c r="T752" t="inlineStr">
-        <is>
-          <t>case-wise deletion</t>
-        </is>
-      </c>
-      <c r="V752" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="Z752" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AA752" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AB752" t="inlineStr">
-        <is>
-          <t>Simple minimalistic way of reporting number of cases converged.</t>
-        </is>
-      </c>
-      <c r="AC752" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="753">
@@ -47895,11 +47795,11 @@
         <v>2021</v>
       </c>
       <c r="C753">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1482</t>
+          <t>https://doi.org/10.1002/jrsm.1444</t>
         </is>
       </c>
       <c r="E753" t="inlineStr">
@@ -47914,11 +47814,6 @@
       </c>
       <c r="G753" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H753" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -47939,16 +47834,6 @@
       </c>
       <c r="N753" t="b">
         <v>0</v>
-      </c>
-      <c r="Z753" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC753" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="754">
@@ -47960,7 +47845,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1424</t>
+          <t>https://doi.org/10.1002/jrsm.1411</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
@@ -48006,7 +47891,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1410</t>
+          <t>https://doi.org/10.1002/jrsm.1440</t>
         </is>
       </c>
       <c r="E755" t="inlineStr">
@@ -48052,7 +47937,7 @@
       </c>
       <c r="D756" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1470</t>
+          <t>https://doi.org/10.1002/jrsm.1413</t>
         </is>
       </c>
       <c r="E756" t="inlineStr">
@@ -48098,7 +47983,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1458</t>
+          <t>https://doi.org/10.1002/jrsm.1428</t>
         </is>
       </c>
       <c r="E757" t="inlineStr">
@@ -48144,7 +48029,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1439</t>
+          <t>https://doi.org/10.1002/jrsm.1412</t>
         </is>
       </c>
       <c r="E758" t="inlineStr">
@@ -48190,7 +48075,7 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1444</t>
+          <t>https://doi.org/10.1002/jrsm.1435</t>
         </is>
       </c>
       <c r="E759" t="inlineStr">
@@ -48236,7 +48121,7 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1411</t>
+          <t>https://doi.org/10.1002/jrsm.1438</t>
         </is>
       </c>
       <c r="E760" t="inlineStr">
@@ -48275,14 +48160,14 @@
     </row>
     <row r="761">
       <c r="B761">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C761">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1440</t>
+          <t>https://doi.org/10.1002/jrsm.1388</t>
         </is>
       </c>
       <c r="E761" t="inlineStr">
@@ -48297,6 +48182,11 @@
       </c>
       <c r="G761" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -48317,18 +48207,28 @@
       </c>
       <c r="N761" t="b">
         <v>0</v>
+      </c>
+      <c r="Z761" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC761" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="762">
       <c r="B762">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C762">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1413</t>
+          <t>https://doi.org/10.1002/jrsm.1389</t>
         </is>
       </c>
       <c r="E762" t="inlineStr">
@@ -48367,14 +48267,14 @@
     </row>
     <row r="763">
       <c r="B763">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C763">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1428</t>
+          <t>https://doi.org/10.1002/jrsm.1396</t>
         </is>
       </c>
       <c r="E763" t="inlineStr">
@@ -48413,14 +48313,14 @@
     </row>
     <row r="764">
       <c r="B764">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C764">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1412</t>
+          <t>https://doi.org/10.1002/jrsm.1397</t>
         </is>
       </c>
       <c r="E764" t="inlineStr">
@@ -48435,6 +48335,11 @@
       </c>
       <c r="G764" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H764" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -48455,18 +48360,28 @@
       </c>
       <c r="N764" t="b">
         <v>0</v>
+      </c>
+      <c r="Z764" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AC764" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="765">
       <c r="B765">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C765">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1435</t>
+          <t>https://doi.org/10.1002/jrsm.1400</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
@@ -48505,14 +48420,14 @@
     </row>
     <row r="766">
       <c r="B766">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C766">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1438</t>
+          <t>https://doi.org/10.1002/jrsm.1401</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
@@ -48527,6 +48442,11 @@
       </c>
       <c r="G766" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -48547,6 +48467,16 @@
       </c>
       <c r="N766" t="b">
         <v>0</v>
+      </c>
+      <c r="Z766" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC766" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="767">
@@ -48558,7 +48488,7 @@
       </c>
       <c r="D767" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1388</t>
+          <t>https://doi.org/10.1002/jrsm.1402</t>
         </is>
       </c>
       <c r="E767" t="inlineStr">
@@ -48619,7 +48549,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1389</t>
+          <t>https://doi.org/10.1002/jrsm.1403</t>
         </is>
       </c>
       <c r="E768" t="inlineStr">
@@ -48665,7 +48595,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1396</t>
+          <t>https://doi.org/10.1002/jrsm.1404</t>
         </is>
       </c>
       <c r="E769" t="inlineStr">
@@ -48680,7 +48610,12 @@
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="I769" t="b">
@@ -48690,16 +48625,66 @@
         <v>0</v>
       </c>
       <c r="K769" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L769" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M769" t="b">
         <v>0</v>
       </c>
       <c r="N769" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O769" t="inlineStr">
+        <is>
+          <t>Figure in supplements</t>
+        </is>
+      </c>
+      <c r="P769" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="Q769" t="inlineStr">
+        <is>
+          <t>proportion of convergence per scenario but just for one method</t>
+        </is>
+      </c>
+      <c r="R769" t="inlineStr">
+        <is>
+          <t>unclear</t>
+        </is>
+      </c>
+      <c r="T769" t="inlineStr">
+        <is>
+          <t>case-wise deletion</t>
+        </is>
+      </c>
+      <c r="U769" t="inlineStr">
+        <is>
+          <t>I guess</t>
+        </is>
+      </c>
+      <c r="V769" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="Z769" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AA769" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC769" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
       </c>
     </row>
     <row r="770">
@@ -48711,7 +48696,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1397</t>
+          <t>https://doi.org/10.1002/jrsm.1405</t>
         </is>
       </c>
       <c r="E770" t="inlineStr">
@@ -48726,11 +48711,6 @@
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H770" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -48751,16 +48731,6 @@
       </c>
       <c r="N770" t="b">
         <v>0</v>
-      </c>
-      <c r="Z770" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AC770" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="771">
@@ -48772,7 +48742,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1400</t>
+          <t>https://doi.org/10.1002/jrsm.1407</t>
         </is>
       </c>
       <c r="E771" t="inlineStr">
@@ -48818,7 +48788,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1401</t>
+          <t>https://doi.org/10.1002/jrsm.1409</t>
         </is>
       </c>
       <c r="E772" t="inlineStr">
@@ -48833,11 +48803,6 @@
       </c>
       <c r="G772" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H772" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -48858,16 +48823,6 @@
       </c>
       <c r="N772" t="b">
         <v>0</v>
-      </c>
-      <c r="Z772" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC772" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="773">
@@ -48879,7 +48834,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1402</t>
+          <t>https://doi.org/10.1002/jrsm.1398</t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
@@ -48894,11 +48849,6 @@
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H773" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -48919,28 +48869,18 @@
       </c>
       <c r="N773" t="b">
         <v>0</v>
-      </c>
-      <c r="Z773" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC773" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="774">
       <c r="B774">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C774">
         <v>3</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1403</t>
+          <t>https://doi.org/10.1002/jrsm.1313</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
@@ -48979,14 +48919,14 @@
     </row>
     <row r="775">
       <c r="B775">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C775">
         <v>3</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1404</t>
+          <t>https://doi.org/10.1002/jrsm.1354</t>
         </is>
       </c>
       <c r="E775" t="inlineStr">
@@ -49001,12 +48941,7 @@
       </c>
       <c r="G775" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H775" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I775" t="b">
@@ -49016,78 +48951,28 @@
         <v>0</v>
       </c>
       <c r="K775" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L775" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M775" t="b">
         <v>0</v>
       </c>
       <c r="N775" t="b">
-        <v>1</v>
-      </c>
-      <c r="O775" t="inlineStr">
-        <is>
-          <t>Figure in supplements</t>
-        </is>
-      </c>
-      <c r="P775" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Q775" t="inlineStr">
-        <is>
-          <t>proportion of convergence per scenario but just for one method</t>
-        </is>
-      </c>
-      <c r="R775" t="inlineStr">
-        <is>
-          <t>unclear</t>
-        </is>
-      </c>
-      <c r="T775" t="inlineStr">
-        <is>
-          <t>case-wise deletion</t>
-        </is>
-      </c>
-      <c r="U775" t="inlineStr">
-        <is>
-          <t>I guess</t>
-        </is>
-      </c>
-      <c r="V775" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="Z775" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AA775" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC775" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
     <row r="776">
       <c r="B776">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C776">
         <v>3</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1405</t>
+          <t>https://doi.org/10.1002/jrsm.1328</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
@@ -49126,14 +49011,14 @@
     </row>
     <row r="777">
       <c r="B777">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C777">
         <v>3</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1407</t>
+          <t>https://doi.org/10.1002/jrsm.1331</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
@@ -49148,7 +49033,12 @@
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="I777" t="b">
@@ -49158,28 +49048,58 @@
         <v>0</v>
       </c>
       <c r="K777" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L777" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M777" t="b">
         <v>0</v>
       </c>
       <c r="N777" t="b">
         <v>0</v>
+      </c>
+      <c r="P777" t="inlineStr">
+        <is>
+          <t>not quantified</t>
+        </is>
+      </c>
+      <c r="Q777" t="inlineStr">
+        <is>
+          <t>"In a few runs of the small number of studies and small number of subjects per arm scenario, we encountered convergence issues of the true IPD due to between-study correlation estimated equal to 1."</t>
+        </is>
+      </c>
+      <c r="R777" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="Z777" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AA777" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC777" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="778">
       <c r="B778">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C778">
         <v>3</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1409</t>
+          <t>https://doi.org/10.1002/jrsm.1340</t>
         </is>
       </c>
       <c r="E778" t="inlineStr">
@@ -49218,14 +49138,14 @@
     </row>
     <row r="779">
       <c r="B779">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C779">
         <v>3</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1398</t>
+          <t>https://doi.org/10.1002/jrsm.1341</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
@@ -49271,7 +49191,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1313</t>
+          <t>https://doi.org/10.1002/jrsm.1347</t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
@@ -49286,6 +49206,11 @@
       </c>
       <c r="G780" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -49306,6 +49231,16 @@
       </c>
       <c r="N780" t="b">
         <v>0</v>
+      </c>
+      <c r="Z780" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC780" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="781">
@@ -49317,7 +49252,7 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1354</t>
+          <t>https://doi.org/10.1002/jrsm.1350</t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
@@ -49363,7 +49298,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1328</t>
+          <t>https://doi.org/10.1002/jrsm.1353</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
@@ -49409,7 +49344,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1331</t>
+          <t>https://doi.org/10.1002/jrsm.1361</t>
         </is>
       </c>
       <c r="E783" t="inlineStr">
@@ -49424,12 +49359,7 @@
       </c>
       <c r="G783" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H783" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I783" t="b">
@@ -49439,46 +49369,16 @@
         <v>0</v>
       </c>
       <c r="K783" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L783" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M783" t="b">
         <v>0</v>
       </c>
       <c r="N783" t="b">
         <v>0</v>
-      </c>
-      <c r="P783" t="inlineStr">
-        <is>
-          <t>not quantified</t>
-        </is>
-      </c>
-      <c r="Q783" t="inlineStr">
-        <is>
-          <t>"In a few runs of the small number of studies and small number of subjects per arm scenario, we encountered convergence issues of the true IPD due to between-study correlation estimated equal to 1."</t>
-        </is>
-      </c>
-      <c r="R783" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="Z783" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AA783" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC783" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="784">
@@ -49490,7 +49390,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1340</t>
+          <t>https://doi.org/10.1002/jrsm.1362</t>
         </is>
       </c>
       <c r="E784" t="inlineStr">
@@ -49536,7 +49436,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1341</t>
+          <t>https://doi.org/10.1002/jrsm.1348</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
@@ -49575,14 +49475,14 @@
     </row>
     <row r="786">
       <c r="B786">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C786">
         <v>3</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1347</t>
+          <t>https://doi.org/10.1002/jrsm.1310</t>
         </is>
       </c>
       <c r="E786" t="inlineStr">
@@ -49597,11 +49497,6 @@
       </c>
       <c r="G786" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H786" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -49622,28 +49517,18 @@
       </c>
       <c r="N786" t="b">
         <v>0</v>
-      </c>
-      <c r="Z786" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC786" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="787">
       <c r="B787">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C787">
         <v>3</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1350</t>
+          <t>https://doi.org/10.1002/jrsm.1301</t>
         </is>
       </c>
       <c r="E787" t="inlineStr">
@@ -49658,6 +49543,11 @@
       </c>
       <c r="G787" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -49678,18 +49568,28 @@
       </c>
       <c r="N787" t="b">
         <v>0</v>
+      </c>
+      <c r="Z787" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AC787" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="788">
       <c r="B788">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C788">
         <v>3</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1353</t>
+          <t>https://doi.org/10.1002/jrsm.1315</t>
         </is>
       </c>
       <c r="E788" t="inlineStr">
@@ -49728,14 +49628,14 @@
     </row>
     <row r="789">
       <c r="B789">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C789">
         <v>3</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1361</t>
+          <t>https://doi.org/10.1002/jrsm.1296</t>
         </is>
       </c>
       <c r="E789" t="inlineStr">
@@ -49750,38 +49650,88 @@
       </c>
       <c r="G789" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="I789" t="b">
         <v>0</v>
       </c>
       <c r="J789" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K789" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L789" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M789" t="b">
         <v>0</v>
       </c>
       <c r="N789" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O789" t="inlineStr">
+        <is>
+          <t>convergence was a performance measure</t>
+        </is>
+      </c>
+      <c r="P789" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="Q789" t="inlineStr">
+        <is>
+          <t>number of converged runs per methodxcondition</t>
+        </is>
+      </c>
+      <c r="R789" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="T789" t="inlineStr">
+        <is>
+          <t>case-wise deletion</t>
+        </is>
+      </c>
+      <c r="V789" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="Z789" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AA789" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC789" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="790">
       <c r="B790">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C790">
         <v>3</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1362</t>
+          <t>https://doi.org/10.1002/jrsm.1297</t>
         </is>
       </c>
       <c r="E790" t="inlineStr">
@@ -49820,14 +49770,14 @@
     </row>
     <row r="791">
       <c r="B791">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C791">
         <v>3</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1348</t>
+          <t>https://doi.org/10.1002/jrsm.1300</t>
         </is>
       </c>
       <c r="E791" t="inlineStr">
@@ -49873,7 +49823,7 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1310</t>
+          <t>https://doi.org/10.1002/jrsm.1302</t>
         </is>
       </c>
       <c r="E792" t="inlineStr">
@@ -49919,7 +49869,7 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1301</t>
+          <t>https://doi.org/10.1002/jrsm.1303</t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
@@ -49939,7 +49889,7 @@
       </c>
       <c r="H793" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I793" t="b">
@@ -49949,20 +49899,40 @@
         <v>0</v>
       </c>
       <c r="K793" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L793" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M793" t="b">
         <v>0</v>
       </c>
       <c r="N793" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="O793" t="inlineStr">
+        <is>
+          <t>Extensive bar charts with model convergence (%) in supplemental materials</t>
+        </is>
+      </c>
+      <c r="P793" t="inlineStr">
+        <is>
+          <t>missing proportion (per method/condition)</t>
+        </is>
+      </c>
+      <c r="Q793" t="inlineStr">
+        <is>
+          <t>convergence is performance measure</t>
+        </is>
+      </c>
+      <c r="R793" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="Z793" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AC793" t="inlineStr">
@@ -49980,7 +49950,7 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1315</t>
+          <t>https://doi.org/10.1002/jrsm.1304</t>
         </is>
       </c>
       <c r="E794" t="inlineStr">
@@ -50026,7 +49996,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1296</t>
+          <t>https://doi.org/10.1002/jrsm.1305</t>
         </is>
       </c>
       <c r="E795" t="inlineStr">
@@ -50056,7 +50026,7 @@
         <v>1</v>
       </c>
       <c r="K795" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L795" t="b">
         <v>1</v>
@@ -50065,12 +50035,7 @@
         <v>0</v>
       </c>
       <c r="N795" t="b">
-        <v>1</v>
-      </c>
-      <c r="O795" t="inlineStr">
-        <is>
-          <t>convergence was a performance measure</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="P795" t="inlineStr">
         <is>
@@ -50079,7 +50044,7 @@
       </c>
       <c r="Q795" t="inlineStr">
         <is>
-          <t>number of converged runs per methodxcondition</t>
+          <t>"This occurred for less than 1% of chains."</t>
         </is>
       </c>
       <c r="R795" t="inlineStr">
@@ -50089,22 +50054,42 @@
       </c>
       <c r="T795" t="inlineStr">
         <is>
-          <t>case-wise deletion</t>
+          <t>list-wise deletion</t>
+        </is>
+      </c>
+      <c r="U795" t="inlineStr">
+        <is>
+          <t>"Therefore, if the chains did not converge for one of the models in a particular simulation, the results for the 2 other models in the simulation and all other 8 possibilities for proportions of IPD studies were excluded from the analysis, in order to eliminate any potential bias due to differing simulations."</t>
         </is>
       </c>
       <c r="V795" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="X795" t="inlineStr">
+        <is>
+          <t>reasoning</t>
+        </is>
+      </c>
+      <c r="Y795" t="inlineStr">
+        <is>
+          <t>avoid bias</t>
         </is>
       </c>
       <c r="Z795" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AA795" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AB795" t="inlineStr">
+        <is>
+          <t>good reporting, combines both non-convergence and time-out</t>
         </is>
       </c>
       <c r="AC795" t="inlineStr">
@@ -50122,7 +50107,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1297</t>
+          <t>https://doi.org/10.1002/jrsm.1311</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
@@ -50168,7 +50153,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1300</t>
+          <t>https://doi.org/10.1002/jrsm.1312</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
@@ -50183,6 +50168,11 @@
       </c>
       <c r="G797" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -50203,23 +50193,33 @@
       </c>
       <c r="N797" t="b">
         <v>0</v>
+      </c>
+      <c r="Z797" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AC797" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="798">
       <c r="B798">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C798">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1302</t>
+          <t>https://doi.org/10.1002/sim.9862</t>
         </is>
       </c>
       <c r="E798" t="inlineStr">
         <is>
-          <t>RSM</t>
+          <t>SiM</t>
         </is>
       </c>
       <c r="F798" t="inlineStr">
@@ -50229,6 +50229,11 @@
       </c>
       <c r="G798" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -50249,23 +50254,33 @@
       </c>
       <c r="N798" t="b">
         <v>0</v>
+      </c>
+      <c r="Z798" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC798" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
       </c>
     </row>
     <row r="799">
       <c r="B799">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C799">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1303</t>
+          <t>https://doi.org/10.1002/sim.9863</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
         <is>
-          <t>RSM</t>
+          <t>SiM</t>
         </is>
       </c>
       <c r="F799" t="inlineStr">
@@ -50280,7 +50295,7 @@
       </c>
       <c r="H799" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I799" t="b">
@@ -50290,40 +50305,20 @@
         <v>0</v>
       </c>
       <c r="K799" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L799" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M799" t="b">
         <v>0</v>
       </c>
       <c r="N799" t="b">
-        <v>1</v>
-      </c>
-      <c r="O799" t="inlineStr">
-        <is>
-          <t>Extensive bar charts with model convergence (%) in supplemental materials</t>
-        </is>
-      </c>
-      <c r="P799" t="inlineStr">
-        <is>
-          <t>missing proportion (per method/condition)</t>
-        </is>
-      </c>
-      <c r="Q799" t="inlineStr">
-        <is>
-          <t>convergence is performance measure</t>
-        </is>
-      </c>
-      <c r="R799" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+        <v>0</v>
       </c>
       <c r="Z799" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AC799" t="inlineStr">
@@ -50334,19 +50329,19 @@
     </row>
     <row r="800">
       <c r="B800">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C800">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1304</t>
+          <t>https://doi.org/10.1002/sim.9864</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
         <is>
-          <t>RSM</t>
+          <t>SiM</t>
         </is>
       </c>
       <c r="F800" t="inlineStr">
@@ -50356,6 +50351,11 @@
       </c>
       <c r="G800" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -50376,23 +50376,33 @@
       </c>
       <c r="N800" t="b">
         <v>0</v>
+      </c>
+      <c r="Z800" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AC800" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="801">
       <c r="B801">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C801">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1305</t>
+          <t>https://doi.org/10.1002/sim.9865</t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
         <is>
-          <t>RSM</t>
+          <t>SiM</t>
         </is>
       </c>
       <c r="F801" t="inlineStr">
@@ -50407,20 +50417,20 @@
       </c>
       <c r="H801" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I801" t="b">
         <v>0</v>
       </c>
       <c r="J801" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K801" t="b">
         <v>0</v>
       </c>
       <c r="L801" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M801" t="b">
         <v>0</v>
@@ -50428,59 +50438,9 @@
       <c r="N801" t="b">
         <v>0</v>
       </c>
-      <c r="P801" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Q801" t="inlineStr">
-        <is>
-          <t>"This occurred for less than 1% of chains."</t>
-        </is>
-      </c>
-      <c r="R801" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="T801" t="inlineStr">
-        <is>
-          <t>list-wise deletion</t>
-        </is>
-      </c>
-      <c r="U801" t="inlineStr">
-        <is>
-          <t>"Therefore, if the chains did not converge for one of the models in a particular simulation, the results for the 2 other models in the simulation and all other 8 possibilities for proportions of IPD studies were excluded from the analysis, in order to eliminate any potential bias due to differing simulations."</t>
-        </is>
-      </c>
-      <c r="V801" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="X801" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
-      </c>
-      <c r="Y801" t="inlineStr">
-        <is>
-          <t>avoid bias</t>
-        </is>
-      </c>
       <c r="Z801" t="inlineStr">
         <is>
           <t>no</t>
-        </is>
-      </c>
-      <c r="AA801" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AB801" t="inlineStr">
-        <is>
-          <t>good reporting, combines both non-convergence and time-out</t>
         </is>
       </c>
       <c r="AC801" t="inlineStr">
@@ -50491,19 +50451,19 @@
     </row>
     <row r="802">
       <c r="B802">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C802">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1311</t>
+          <t>https://doi.org/10.1002/sim.9866</t>
         </is>
       </c>
       <c r="E802" t="inlineStr">
         <is>
-          <t>RSM</t>
+          <t>SiM</t>
         </is>
       </c>
       <c r="F802" t="inlineStr">
@@ -50513,6 +50473,11 @@
       </c>
       <c r="G802" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -50533,23 +50498,33 @@
       </c>
       <c r="N802" t="b">
         <v>0</v>
+      </c>
+      <c r="Z802" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AC802" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="803">
       <c r="B803">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C803">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1312</t>
+          <t>https://doi.org/10.1002/sim.9867</t>
         </is>
       </c>
       <c r="E803" t="inlineStr">
         <is>
-          <t>RSM</t>
+          <t>SiM</t>
         </is>
       </c>
       <c r="F803" t="inlineStr">
@@ -50605,7 +50580,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9862</t>
+          <t>https://doi.org/10.1002/sim.9868</t>
         </is>
       </c>
       <c r="E804" t="inlineStr">
@@ -50648,12 +50623,12 @@
       </c>
       <c r="Z804" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AC804" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -50666,7 +50641,7 @@
       </c>
       <c r="D805" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9863</t>
+          <t>https://doi.org/10.1002/sim.9869</t>
         </is>
       </c>
       <c r="E805" t="inlineStr">
@@ -50709,7 +50684,7 @@
       </c>
       <c r="Z805" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AC805" t="inlineStr">
@@ -50727,7 +50702,7 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9864</t>
+          <t>https://doi.org/10.1002/sim.9870</t>
         </is>
       </c>
       <c r="E806" t="inlineStr">
@@ -50742,11 +50717,6 @@
       </c>
       <c r="G806" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H806" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -50767,16 +50737,6 @@
       </c>
       <c r="N806" t="b">
         <v>0</v>
-      </c>
-      <c r="Z806" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AC806" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="807">
@@ -50788,7 +50748,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9865</t>
+          <t>https://doi.org/10.1002/sim.9861</t>
         </is>
       </c>
       <c r="E807" t="inlineStr">
@@ -50803,11 +50763,6 @@
       </c>
       <c r="G807" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H807" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -50828,16 +50783,6 @@
       </c>
       <c r="N807" t="b">
         <v>0</v>
-      </c>
-      <c r="Z807" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC807" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="808">
@@ -50845,11 +50790,11 @@
         <v>2023</v>
       </c>
       <c r="C808">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9866</t>
+          <t>https://doi.org/10.1002/sim.9816</t>
         </is>
       </c>
       <c r="E808" t="inlineStr">
@@ -50869,7 +50814,7 @@
       </c>
       <c r="H808" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I808" t="b">
@@ -50879,16 +50824,41 @@
         <v>0</v>
       </c>
       <c r="K808" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L808" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M808" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N808" t="b">
         <v>0</v>
+      </c>
+      <c r="P808" t="inlineStr">
+        <is>
+          <t>max missing proportion (per method/condition)</t>
+        </is>
+      </c>
+      <c r="Q808" t="inlineStr">
+        <is>
+          <t>absolute number of valid cases per condition</t>
+        </is>
+      </c>
+      <c r="R808" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="T808" t="inlineStr">
+        <is>
+          <t>case-wise deletion</t>
+        </is>
+      </c>
+      <c r="V808" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="Z808" t="inlineStr">
         <is>
@@ -50906,11 +50876,11 @@
         <v>2023</v>
       </c>
       <c r="C809">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9867</t>
+          <t>https://doi.org/10.1002/sim.9821</t>
         </is>
       </c>
       <c r="E809" t="inlineStr">
@@ -50930,7 +50900,7 @@
       </c>
       <c r="H809" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I809" t="b">
@@ -50940,7 +50910,7 @@
         <v>0</v>
       </c>
       <c r="K809" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L809" t="b">
         <v>0</v>
@@ -50950,6 +50920,41 @@
       </c>
       <c r="N809" t="b">
         <v>0</v>
+      </c>
+      <c r="O809" t="inlineStr">
+        <is>
+          <t>Tables for RMSE include Inf(Inf) with no explanation</t>
+        </is>
+      </c>
+      <c r="P809" t="inlineStr">
+        <is>
+          <t>not quantified</t>
+        </is>
+      </c>
+      <c r="R809" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="S809" t="inlineStr">
+        <is>
+          <t>Performance missing</t>
+        </is>
+      </c>
+      <c r="T809" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="U809" t="inlineStr">
+        <is>
+          <t>performance missing Inf(Inf)</t>
+        </is>
+      </c>
+      <c r="V809" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="Z809" t="inlineStr">
         <is>
@@ -50967,11 +50972,11 @@
         <v>2023</v>
       </c>
       <c r="C810">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9868</t>
+          <t>https://doi.org/10.1002/sim.9822</t>
         </is>
       </c>
       <c r="E810" t="inlineStr">
@@ -50991,26 +50996,61 @@
       </c>
       <c r="H810" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I810" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J810" t="b">
         <v>0</v>
       </c>
       <c r="K810" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L810" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M810" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N810" t="b">
         <v>0</v>
+      </c>
+      <c r="O810" t="inlineStr">
+        <is>
+          <t>Missingness in performance outcome denoted as NA in table</t>
+        </is>
+      </c>
+      <c r="P810" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="Q810" t="inlineStr">
+        <is>
+          <t>missing proportion reported for one scenario as an example</t>
+        </is>
+      </c>
+      <c r="R810" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="T810" t="inlineStr">
+        <is>
+          <t>other deletion</t>
+        </is>
+      </c>
+      <c r="U810" t="inlineStr">
+        <is>
+          <t>method wide deletion per scenario</t>
+        </is>
+      </c>
+      <c r="V810" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
       </c>
       <c r="Z810" t="inlineStr">
         <is>
@@ -51028,11 +51068,11 @@
         <v>2023</v>
       </c>
       <c r="C811">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9869</t>
+          <t>https://doi.org/10.1002/sim.9823</t>
         </is>
       </c>
       <c r="E811" t="inlineStr">
@@ -51089,11 +51129,11 @@
         <v>2023</v>
       </c>
       <c r="C812">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9870</t>
+          <t>https://doi.org/10.1002/sim.9824</t>
         </is>
       </c>
       <c r="E812" t="inlineStr">
@@ -51108,6 +51148,11 @@
       </c>
       <c r="G812" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -51128,6 +51173,16 @@
       </c>
       <c r="N812" t="b">
         <v>0</v>
+      </c>
+      <c r="Z812" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AC812" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="813">
@@ -51135,11 +51190,11 @@
         <v>2023</v>
       </c>
       <c r="C813">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9861</t>
+          <t>https://doi.org/10.1002/sim.9825</t>
         </is>
       </c>
       <c r="E813" t="inlineStr">
@@ -51154,6 +51209,11 @@
       </c>
       <c r="G813" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -51174,6 +51234,16 @@
       </c>
       <c r="N813" t="b">
         <v>0</v>
+      </c>
+      <c r="Z813" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC813" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="814">
@@ -51185,7 +51255,7 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9816</t>
+          <t>https://doi.org/10.1002/sim.9826</t>
         </is>
       </c>
       <c r="E814" t="inlineStr">
@@ -51205,7 +51275,7 @@
       </c>
       <c r="H814" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I814" t="b">
@@ -51215,45 +51285,20 @@
         <v>0</v>
       </c>
       <c r="K814" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L814" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M814" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N814" t="b">
         <v>0</v>
       </c>
-      <c r="P814" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Q814" t="inlineStr">
-        <is>
-          <t>absolute number of valid cases per condition</t>
-        </is>
-      </c>
-      <c r="R814" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="T814" t="inlineStr">
-        <is>
-          <t>case-wise deletion</t>
-        </is>
-      </c>
-      <c r="V814" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="Z814" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AC814" t="inlineStr">
@@ -51271,7 +51316,7 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9821</t>
+          <t>https://doi.org/10.1002/sim.9827</t>
         </is>
       </c>
       <c r="E815" t="inlineStr">
@@ -51304,7 +51349,7 @@
         <v>1</v>
       </c>
       <c r="L815" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M815" t="b">
         <v>0</v>
@@ -51312,14 +51357,14 @@
       <c r="N815" t="b">
         <v>0</v>
       </c>
-      <c r="O815" t="inlineStr">
-        <is>
-          <t>Tables for RMSE include Inf(Inf) with no explanation</t>
-        </is>
-      </c>
       <c r="P815" t="inlineStr">
         <is>
-          <t>not quantified</t>
+          <t>missing proportion (per method/condition)</t>
+        </is>
+      </c>
+      <c r="Q815" t="inlineStr">
+        <is>
+          <t>Absolute number of non-converged cases per condition (only one method evaluated)</t>
         </is>
       </c>
       <c r="R815" t="inlineStr">
@@ -51327,29 +51372,9 @@
           <t>no</t>
         </is>
       </c>
-      <c r="S815" t="inlineStr">
-        <is>
-          <t>Performance missing</t>
-        </is>
-      </c>
-      <c r="T815" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="U815" t="inlineStr">
-        <is>
-          <t>performance missing Inf(Inf)</t>
-        </is>
-      </c>
-      <c r="V815" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="Z815" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AC815" t="inlineStr">
@@ -51367,7 +51392,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9822</t>
+          <t>https://doi.org/10.1002/sim.9828</t>
         </is>
       </c>
       <c r="E816" t="inlineStr">
@@ -51391,7 +51416,7 @@
         </is>
       </c>
       <c r="I816" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J816" t="b">
         <v>0</v>
@@ -51408,19 +51433,14 @@
       <c r="N816" t="b">
         <v>0</v>
       </c>
-      <c r="O816" t="inlineStr">
-        <is>
-          <t>Missingness in performance outcome denoted as NA in table</t>
-        </is>
-      </c>
       <c r="P816" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>missing proportion (per method/condition)</t>
         </is>
       </c>
       <c r="Q816" t="inlineStr">
         <is>
-          <t>missing proportion reported for one scenario as an example</t>
+          <t>Absolute number of discarded trials per condition given in result table.</t>
         </is>
       </c>
       <c r="R816" t="inlineStr">
@@ -51430,12 +51450,7 @@
       </c>
       <c r="T816" t="inlineStr">
         <is>
-          <t>other deletion</t>
-        </is>
-      </c>
-      <c r="U816" t="inlineStr">
-        <is>
-          <t>method wide deletion per scenario</t>
+          <t>case-wise deletion</t>
         </is>
       </c>
       <c r="V816" t="inlineStr">
@@ -51456,19 +51471,19 @@
     </row>
     <row r="817">
       <c r="B817">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C817">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9823</t>
+          <t>https://doi.org/10.1037/met0000336</t>
         </is>
       </c>
       <c r="E817" t="inlineStr">
         <is>
-          <t>SiM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F817" t="inlineStr">
@@ -51483,53 +51498,93 @@
       </c>
       <c r="H817" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I817" t="b">
         <v>0</v>
       </c>
       <c r="J817" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K817" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L817" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M817" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N817" t="b">
         <v>0</v>
       </c>
+      <c r="P817" t="inlineStr">
+        <is>
+          <t>missing proportion (per method/condition)</t>
+        </is>
+      </c>
+      <c r="Q817" t="inlineStr">
+        <is>
+          <t>Table with absolute numbers of samples with improper solution for each condition for the one method where it occured. Absolute number in text for the one condition where it occured for another method.</t>
+        </is>
+      </c>
+      <c r="R817" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="T817" t="inlineStr">
+        <is>
+          <t>list-wise deletion</t>
+        </is>
+      </c>
+      <c r="U817" t="inlineStr">
+        <is>
+          <t>"In the calculation of the parameter recovery measures, we removed any sample entailing nonconvergence or convergence to improper solutions."</t>
+        </is>
+      </c>
+      <c r="V817" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
       <c r="Z817" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
+      <c r="AA817" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AB817" t="inlineStr">
+        <is>
+          <t>I think this illustrates that even though the authors describe what they did, it is often easy to misinterpret.</t>
+        </is>
+      </c>
       <c r="AC817" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="B818">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C818">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9824</t>
+          <t>https://doi.org/10.1037/met0000337</t>
         </is>
       </c>
       <c r="E818" t="inlineStr">
         <is>
-          <t>SiM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F818" t="inlineStr">
@@ -51539,7 +51594,7 @@
       </c>
       <c r="G818" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H818" t="inlineStr">
@@ -51572,25 +51627,25 @@
       </c>
       <c r="AC818" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="B819">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C819">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9825</t>
+          <t>https://doi.org/10.1037/met0000346</t>
         </is>
       </c>
       <c r="E819" t="inlineStr">
         <is>
-          <t>SiM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F819" t="inlineStr">
@@ -51639,19 +51694,19 @@
     </row>
     <row r="820">
       <c r="B820">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C820">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9826</t>
+          <t>https://doi.org/10.1037/met0000345</t>
         </is>
       </c>
       <c r="E820" t="inlineStr">
         <is>
-          <t>SiM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F820" t="inlineStr">
@@ -51661,11 +51716,6 @@
       </c>
       <c r="G820" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H820" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -51686,33 +51736,23 @@
       </c>
       <c r="N820" t="b">
         <v>0</v>
-      </c>
-      <c r="Z820" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC820" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="821">
       <c r="B821">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C821">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9827</t>
+          <t>https://doi.org/10.1037/met0000338</t>
         </is>
       </c>
       <c r="E821" t="inlineStr">
         <is>
-          <t>SiM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F821" t="inlineStr">
@@ -51727,7 +51767,7 @@
       </c>
       <c r="H821" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I821" t="b">
@@ -51737,31 +51777,16 @@
         <v>0</v>
       </c>
       <c r="K821" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L821" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M821" t="b">
         <v>0</v>
       </c>
       <c r="N821" t="b">
         <v>0</v>
-      </c>
-      <c r="P821" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Q821" t="inlineStr">
-        <is>
-          <t>Absolute number of non-converged cases per condition (only one method evaluated)</t>
-        </is>
-      </c>
-      <c r="R821" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
       </c>
       <c r="Z821" t="inlineStr">
         <is>
@@ -51776,19 +51801,19 @@
     </row>
     <row r="822">
       <c r="B822">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C822">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9828</t>
+          <t>https://doi.org/10.1037/met0000348</t>
         </is>
       </c>
       <c r="E822" t="inlineStr">
         <is>
-          <t>SiM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F822" t="inlineStr">
@@ -51798,12 +51823,7 @@
       </c>
       <c r="G822" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H822" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I822" t="b">
@@ -51813,63 +51833,28 @@
         <v>0</v>
       </c>
       <c r="K822" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L822" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M822" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N822" t="b">
         <v>0</v>
-      </c>
-      <c r="P822" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Q822" t="inlineStr">
-        <is>
-          <t>Absolute number of discarded trials per condition given in result table.</t>
-        </is>
-      </c>
-      <c r="R822" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="T822" t="inlineStr">
-        <is>
-          <t>case-wise deletion</t>
-        </is>
-      </c>
-      <c r="V822" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="Z822" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AC822" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="823">
       <c r="B823">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C823">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000336</t>
+          <t>https://doi.org/10.1037/met0000242</t>
         </is>
       </c>
       <c r="E823" t="inlineStr">
@@ -51889,70 +51874,30 @@
       </c>
       <c r="H823" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I823" t="b">
         <v>0</v>
       </c>
       <c r="J823" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K823" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L823" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M823" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N823" t="b">
         <v>0</v>
       </c>
-      <c r="P823" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Q823" t="inlineStr">
-        <is>
-          <t>Table with absolute numbers of samples with improper solution for each condition for the one method where it occured. Absolute number in text for the one condition where it occured for another method.</t>
-        </is>
-      </c>
-      <c r="R823" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="T823" t="inlineStr">
-        <is>
-          <t>list-wise deletion</t>
-        </is>
-      </c>
-      <c r="U823" t="inlineStr">
-        <is>
-          <t>"In the calculation of the parameter recovery measures, we removed any sample entailing nonconvergence or convergence to improper solutions."</t>
-        </is>
-      </c>
-      <c r="V823" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="Z823" t="inlineStr">
         <is>
           <t>no</t>
-        </is>
-      </c>
-      <c r="AA823" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AB823" t="inlineStr">
-        <is>
-          <t>I think this illustrates that even though the authors describe what they did, it is often easy to misinterpret.</t>
         </is>
       </c>
       <c r="AC823" t="inlineStr">
@@ -51963,14 +51908,14 @@
     </row>
     <row r="824">
       <c r="B824">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C824">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000337</t>
+          <t>https://doi.org/10.1037/met0000249</t>
         </is>
       </c>
       <c r="E824" t="inlineStr">
@@ -51985,7 +51930,7 @@
       </c>
       <c r="G824" t="inlineStr">
         <is>
-          <t>unclear</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="H824" t="inlineStr">
@@ -52013,25 +51958,25 @@
       </c>
       <c r="Z824" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AC824" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="B825">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C825">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000346</t>
+          <t>https://doi.org/10.1037/met0000268</t>
         </is>
       </c>
       <c r="E825" t="inlineStr">
@@ -52046,11 +51991,6 @@
       </c>
       <c r="G825" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H825" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -52071,28 +52011,18 @@
       </c>
       <c r="N825" t="b">
         <v>0</v>
-      </c>
-      <c r="Z825" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC825" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="826">
       <c r="B826">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C826">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000345</t>
+          <t>https://doi.org/10.1037/met0000248</t>
         </is>
       </c>
       <c r="E826" t="inlineStr">
@@ -52107,6 +52037,11 @@
       </c>
       <c r="G826" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -52127,18 +52062,28 @@
       </c>
       <c r="N826" t="b">
         <v>0</v>
+      </c>
+      <c r="Z826" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC826" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="827">
       <c r="B827">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C827">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000338</t>
+          <t>https://doi.org/10.1037/met0000250</t>
         </is>
       </c>
       <c r="E827" t="inlineStr">
@@ -52153,11 +52098,6 @@
       </c>
       <c r="G827" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H827" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -52178,28 +52118,18 @@
       </c>
       <c r="N827" t="b">
         <v>0</v>
-      </c>
-      <c r="Z827" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC827" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
       </c>
     </row>
     <row r="828">
       <c r="B828">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C828">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000348</t>
+          <t>https://doi.org/10.1037/met0000256</t>
         </is>
       </c>
       <c r="E828" t="inlineStr">
@@ -52245,7 +52175,7 @@
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000242</t>
+          <t>https://doi.org/10.1037/met0000254</t>
         </is>
       </c>
       <c r="E829" t="inlineStr">
@@ -52293,292 +52223,494 @@
       </c>
       <c r="AC829" t="inlineStr">
         <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>agreement</t>
+        </is>
+      </c>
+      <c r="C830">
+        <v>6</v>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1037/met0000473</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I830" t="b">
+        <v>0</v>
+      </c>
+      <c r="J830" t="b">
+        <v>0</v>
+      </c>
+      <c r="K830" t="b">
+        <v>0</v>
+      </c>
+      <c r="L830" t="b">
+        <v>0</v>
+      </c>
+      <c r="M830" t="b">
+        <v>0</v>
+      </c>
+      <c r="N830" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>agreement</t>
+        </is>
+      </c>
+      <c r="C831">
+        <v>2</v>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1037/met0000301</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G831" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H831" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I831" t="b">
+        <v>0</v>
+      </c>
+      <c r="J831" t="b">
+        <v>1</v>
+      </c>
+      <c r="K831" t="b">
+        <v>1</v>
+      </c>
+      <c r="L831" t="b">
+        <v>1</v>
+      </c>
+      <c r="M831" t="b">
+        <v>1</v>
+      </c>
+      <c r="N831" t="b">
+        <v>0</v>
+      </c>
+      <c r="O831" t="inlineStr">
+        <is>
+          <t>Due to runtime issues entire scenrios were not run for two methods.</t>
+        </is>
+      </c>
+      <c r="P831" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="Q831" t="inlineStr">
+        <is>
+          <t>Due to runtime issues entire scenrios were not run for two methods. Table indicates runtimes and shows which conditions were not run.</t>
+        </is>
+      </c>
+      <c r="R831" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="S831" t="inlineStr">
+        <is>
+          <t>Performance was averaged over specific sets of scenarios not across all scenarios.</t>
+        </is>
+      </c>
+      <c r="T831" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="U831" t="inlineStr">
+        <is>
+          <t>Performance was averaged over specific sets of scenarios not across all scenarios.</t>
+        </is>
+      </c>
+      <c r="V831" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="Z831" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AA831" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AB831" t="inlineStr">
+        <is>
+          <t>Interesting example of run-tim related missingness and aggregation of performance results over parts of the parameter space.</t>
+        </is>
+      </c>
+      <c r="AC831" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>agreement</t>
+        </is>
+      </c>
+      <c r="C832">
+        <v>542</v>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/01621459.2021.1969238</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>JASA</t>
+        </is>
+      </c>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G832" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I832" t="b">
+        <v>0</v>
+      </c>
+      <c r="J832" t="b">
+        <v>0</v>
+      </c>
+      <c r="K832" t="b">
+        <v>1</v>
+      </c>
+      <c r="L832" t="b">
+        <v>1</v>
+      </c>
+      <c r="M832" t="b">
+        <v>0</v>
+      </c>
+      <c r="N832" t="b">
+        <v>0</v>
+      </c>
+      <c r="P832" t="inlineStr">
+        <is>
+          <t>not quantified</t>
+        </is>
+      </c>
+      <c r="Q832" t="inlineStr">
+        <is>
+          <t>Average estimation error is reported after i={0,1,2,3,4,5} iterations.</t>
+        </is>
+      </c>
+      <c r="R832" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="S832" t="inlineStr">
+        <is>
+          <t>I don't think they did anything.</t>
+        </is>
+      </c>
+      <c r="Z832" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC832" t="inlineStr">
+        <is>
           <t>medium</t>
         </is>
       </c>
     </row>
-    <row r="830">
-      <c r="B830">
-        <v>2020</v>
-      </c>
-      <c r="C830">
-        <v>5</v>
-      </c>
-      <c r="D830" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1037/met0000249</t>
-        </is>
-      </c>
-      <c r="E830" t="inlineStr">
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>agreement</t>
+        </is>
+      </c>
+      <c r="C833">
+        <v>1</v>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/jrsm.1517</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>RSM</t>
+        </is>
+      </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G833" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I833" t="b">
+        <v>0</v>
+      </c>
+      <c r="J833" t="b">
+        <v>1</v>
+      </c>
+      <c r="K833" t="b">
+        <v>1</v>
+      </c>
+      <c r="L833" t="b">
+        <v>1</v>
+      </c>
+      <c r="M833" t="b">
+        <v>0</v>
+      </c>
+      <c r="N833" t="b">
+        <v>0</v>
+      </c>
+      <c r="P833" t="inlineStr">
+        <is>
+          <t>not quantified</t>
+        </is>
+      </c>
+      <c r="R833" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="S833" t="inlineStr">
+        <is>
+          <t>"For small τ and small number of studies, it is possible that ^τ ¼ 0 due to truncation of the estimator to avoid negative estimates. In practice, when this happens it is a pointless exercise to construct intervals for heterogeneity, and confidence intervals for τ are similarly zero in both bounds. Rather than remove these trials, we chose the largest interval, for example, 0, 1 ðÞfor Mi, to indicate uncertainty for measuring heterogeneity."</t>
+        </is>
+      </c>
+      <c r="T833" t="inlineStr">
+        <is>
+          <t>imputation</t>
+        </is>
+      </c>
+      <c r="U833" t="inlineStr">
+        <is>
+          <t>imputation with largest interval</t>
+        </is>
+      </c>
+      <c r="V833" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="X833" t="inlineStr">
+        <is>
+          <t>reasoning</t>
+        </is>
+      </c>
+      <c r="Z833" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AA833" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AB833" t="inlineStr">
+        <is>
+          <t>I didn't come across any studies using imputation, so this might be one of very few.</t>
+        </is>
+      </c>
+      <c r="AC833" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>agreement</t>
+        </is>
+      </c>
+      <c r="C834">
+        <v>4</v>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1037/met0000381</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
       </c>
-      <c r="F830" t="inlineStr">
+      <c r="F834" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="G830" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H830" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I830" t="b">
-        <v>0</v>
-      </c>
-      <c r="J830" t="b">
-        <v>0</v>
-      </c>
-      <c r="K830" t="b">
-        <v>0</v>
-      </c>
-      <c r="L830" t="b">
-        <v>0</v>
-      </c>
-      <c r="M830" t="b">
-        <v>0</v>
-      </c>
-      <c r="N830" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z830" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC830" t="inlineStr">
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I834" t="b">
+        <v>0</v>
+      </c>
+      <c r="J834" t="b">
+        <v>0</v>
+      </c>
+      <c r="K834" t="b">
+        <v>1</v>
+      </c>
+      <c r="L834" t="b">
+        <v>1</v>
+      </c>
+      <c r="M834" t="b">
+        <v>0</v>
+      </c>
+      <c r="N834" t="b">
+        <v>0</v>
+      </c>
+      <c r="O834" t="inlineStr">
+        <is>
+          <t>Footnote</t>
+        </is>
+      </c>
+      <c r="P834" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="Q834" t="inlineStr">
+        <is>
+          <t>"a few" but specific methods and conditions named</t>
+        </is>
+      </c>
+      <c r="R834" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="T834" t="inlineStr">
+        <is>
+          <t>additional simulations</t>
+        </is>
+      </c>
+      <c r="U834" t="inlineStr">
+        <is>
+          <t>"We removed those cases and ran the simulation until we had a total of 500 replications under those conditions."</t>
+        </is>
+      </c>
+      <c r="V834" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="Z834" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AA834" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AB834" t="inlineStr">
+        <is>
+          <t>Nice and plain example for rerunning iterations until everything converged.</t>
+        </is>
+      </c>
+      <c r="AC834" t="inlineStr">
         <is>
           <t>high</t>
         </is>
       </c>
     </row>
-    <row r="831">
-      <c r="B831">
-        <v>2020</v>
-      </c>
-      <c r="C831">
-        <v>5</v>
-      </c>
-      <c r="D831" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1037/met0000268</t>
-        </is>
-      </c>
-      <c r="E831" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F831" t="inlineStr">
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>agreement</t>
+        </is>
+      </c>
+      <c r="C835">
+        <v>6</v>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/jrsm.1504</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>RSM</t>
+        </is>
+      </c>
+      <c r="F835" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="G831" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I831" t="b">
-        <v>0</v>
-      </c>
-      <c r="J831" t="b">
-        <v>0</v>
-      </c>
-      <c r="K831" t="b">
-        <v>0</v>
-      </c>
-      <c r="L831" t="b">
-        <v>0</v>
-      </c>
-      <c r="M831" t="b">
-        <v>0</v>
-      </c>
-      <c r="N831" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="832">
-      <c r="B832">
-        <v>2020</v>
-      </c>
-      <c r="C832">
-        <v>5</v>
-      </c>
-      <c r="D832" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1037/met0000248</t>
-        </is>
-      </c>
-      <c r="E832" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F832" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="G832" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H832" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I832" t="b">
-        <v>0</v>
-      </c>
-      <c r="J832" t="b">
-        <v>0</v>
-      </c>
-      <c r="K832" t="b">
-        <v>0</v>
-      </c>
-      <c r="L832" t="b">
-        <v>0</v>
-      </c>
-      <c r="M832" t="b">
-        <v>0</v>
-      </c>
-      <c r="N832" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z832" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC832" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="B833">
-        <v>2020</v>
-      </c>
-      <c r="C833">
-        <v>5</v>
-      </c>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1037/met0000250</t>
-        </is>
-      </c>
-      <c r="E833" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F833" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="G833" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I833" t="b">
-        <v>0</v>
-      </c>
-      <c r="J833" t="b">
-        <v>0</v>
-      </c>
-      <c r="K833" t="b">
-        <v>0</v>
-      </c>
-      <c r="L833" t="b">
-        <v>0</v>
-      </c>
-      <c r="M833" t="b">
-        <v>0</v>
-      </c>
-      <c r="N833" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="834">
-      <c r="B834">
-        <v>2020</v>
-      </c>
-      <c r="C834">
-        <v>5</v>
-      </c>
-      <c r="D834" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1037/met0000256</t>
-        </is>
-      </c>
-      <c r="E834" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F834" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="G834" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I834" t="b">
-        <v>0</v>
-      </c>
-      <c r="J834" t="b">
-        <v>0</v>
-      </c>
-      <c r="K834" t="b">
-        <v>0</v>
-      </c>
-      <c r="L834" t="b">
-        <v>0</v>
-      </c>
-      <c r="M834" t="b">
-        <v>0</v>
-      </c>
-      <c r="N834" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="835">
-      <c r="B835">
-        <v>2020</v>
-      </c>
-      <c r="C835">
-        <v>5</v>
-      </c>
-      <c r="D835" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1037/met0000254</t>
-        </is>
-      </c>
-      <c r="E835" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F835" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
       <c r="G835" t="inlineStr">
         <is>
           <t>yes</t>
@@ -52586,20 +52718,20 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="I835" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J835" t="b">
         <v>0</v>
       </c>
       <c r="K835" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L835" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M835" t="b">
         <v>0</v>
@@ -52607,9 +52739,39 @@
       <c r="N835" t="b">
         <v>0</v>
       </c>
+      <c r="P835" t="inlineStr">
+        <is>
+          <t>missing proportion (total)</t>
+        </is>
+      </c>
+      <c r="R835" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="S835" t="inlineStr">
+        <is>
+          <t>"A small percentage of the 4800 total scenarios (2.5%) proved computationally infeasible to run because their data generation parameters consistently produced extreme datasets for which standard metaregression estimation failed. We analyzed the remaining 4679 scenarios, representing 2388 of the 2400 possible combinations of data-generation parameters."</t>
+        </is>
+      </c>
+      <c r="T835" t="inlineStr">
+        <is>
+          <t>list-wise deletion</t>
+        </is>
+      </c>
+      <c r="V835" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="X835" t="inlineStr">
+        <is>
+          <t>reasoning</t>
+        </is>
+      </c>
       <c r="Z835" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="AC835" t="inlineStr">
@@ -52625,11 +52787,11 @@
         </is>
       </c>
       <c r="C836">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000473</t>
+          <t>https://doi.org/10.1037/met0000384</t>
         </is>
       </c>
       <c r="E836" t="inlineStr">
@@ -52644,26 +52806,86 @@
       </c>
       <c r="G836" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H836" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="I836" t="b">
         <v>0</v>
       </c>
       <c r="J836" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K836" t="b">
         <v>0</v>
       </c>
       <c r="L836" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M836" t="b">
         <v>0</v>
       </c>
       <c r="N836" t="b">
         <v>0</v>
+      </c>
+      <c r="O836" t="inlineStr">
+        <is>
+          <t>Plus Footnote</t>
+        </is>
+      </c>
+      <c r="P836" t="inlineStr">
+        <is>
+          <t>not quantified</t>
+        </is>
+      </c>
+      <c r="R836" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="T836" t="inlineStr">
+        <is>
+          <t>additional simulations</t>
+        </is>
+      </c>
+      <c r="U836" t="inlineStr">
+        <is>
+          <t>"Only data sets that produced converged PAF factor solutions (using a convergence threshold of .0001 and a maximum of 15,000 iterations) were included in our analyses. In other words, we continued to generate data sets until we had 1,000 suitable samples for each condition.5"</t>
+        </is>
+      </c>
+      <c r="V836" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="W836" t="inlineStr">
+        <is>
+          <t>"5 Because Heywood cases are often found in factor solutions that have failed to converge (Kano, 1998), we tried to separate any confounding influence from convergence issues by subsetting only converged solutions."</t>
+        </is>
+      </c>
+      <c r="X836" t="inlineStr">
+        <is>
+          <t>reasoning</t>
+        </is>
+      </c>
+      <c r="AA836" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AB836" t="inlineStr">
+        <is>
+          <t>I didn't come across another example of resampling until everything converges. Simulation code in pdf file in supplemental materials.</t>
+        </is>
+      </c>
+      <c r="AC836" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
       </c>
     </row>
     <row r="837">
@@ -52673,16 +52895,16 @@
         </is>
       </c>
       <c r="C837">
-        <v>2</v>
+        <v>541</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000301</t>
+          <t>https://doi.org/10.1080/01621459.2021.1920959</t>
         </is>
       </c>
       <c r="E837" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>JASA</t>
         </is>
       </c>
       <c r="F837" t="inlineStr">
@@ -52697,85 +52919,35 @@
       </c>
       <c r="H837" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I837" t="b">
         <v>0</v>
       </c>
       <c r="J837" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K837" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L837" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M837" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N837" t="b">
         <v>0</v>
       </c>
-      <c r="O837" t="inlineStr">
-        <is>
-          <t>Due to runtime issues entire scenrios were not run for two methods.</t>
-        </is>
-      </c>
-      <c r="P837" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Q837" t="inlineStr">
-        <is>
-          <t>Due to runtime issues entire scenrios were not run for two methods. Table indicates runtimes and shows which conditions were not run.</t>
-        </is>
-      </c>
-      <c r="R837" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="S837" t="inlineStr">
-        <is>
-          <t>Performance was averaged over specific sets of scenarios not across all scenarios.</t>
-        </is>
-      </c>
-      <c r="T837" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="U837" t="inlineStr">
-        <is>
-          <t>Performance was averaged over specific sets of scenarios not across all scenarios.</t>
-        </is>
-      </c>
-      <c r="V837" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
       <c r="Z837" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AA837" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AB837" t="inlineStr">
-        <is>
-          <t>Interesting example of run-tim related missingness and aggregation of performance results over parts of the parameter space.</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AC837" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -52786,16 +52958,16 @@
         </is>
       </c>
       <c r="C838">
-        <v>542</v>
+        <v>29</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/01621459.2021.1969238</t>
+          <t>https://doi.org/10.1002/sim.9920</t>
         </is>
       </c>
       <c r="E838" t="inlineStr">
         <is>
-          <t>JASA</t>
+          <t>SiM</t>
         </is>
       </c>
       <c r="F838" t="inlineStr">
@@ -52810,7 +52982,7 @@
       </c>
       <c r="H838" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I838" t="b">
@@ -52820,10 +52992,10 @@
         <v>0</v>
       </c>
       <c r="K838" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L838" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M838" t="b">
         <v>0</v>
@@ -52831,26 +53003,6 @@
       <c r="N838" t="b">
         <v>0</v>
       </c>
-      <c r="P838" t="inlineStr">
-        <is>
-          <t>not quantified</t>
-        </is>
-      </c>
-      <c r="Q838" t="inlineStr">
-        <is>
-          <t>Average estimation error is reported after i={0,1,2,3,4,5} iterations.</t>
-        </is>
-      </c>
-      <c r="R838" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="S838" t="inlineStr">
-        <is>
-          <t>I don't think they did anything.</t>
-        </is>
-      </c>
       <c r="Z838" t="inlineStr">
         <is>
           <t>no</t>
@@ -52858,7 +53010,7 @@
       </c>
       <c r="AC838" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -52869,16 +53021,16 @@
         </is>
       </c>
       <c r="C839">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1517</t>
+          <t>https://doi.org/10.1002/sim.9818</t>
         </is>
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>RSM</t>
+          <t>SiM</t>
         </is>
       </c>
       <c r="F839" t="inlineStr">
@@ -52893,20 +53045,20 @@
       </c>
       <c r="H839" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I839" t="b">
         <v>0</v>
       </c>
       <c r="J839" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K839" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L839" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M839" t="b">
         <v>0</v>
@@ -52914,59 +53066,14 @@
       <c r="N839" t="b">
         <v>0</v>
       </c>
-      <c r="P839" t="inlineStr">
-        <is>
-          <t>not quantified</t>
-        </is>
-      </c>
-      <c r="R839" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="S839" t="inlineStr">
-        <is>
-          <t>"For small τ and small number of studies, it is possible that ^τ ¼ 0 due to truncation of the estimator to avoid negative estimates. In practice, when this happens it is a pointless exercise to construct intervals for heterogeneity, and confidence intervals for τ are similarly zero in both bounds. Rather than remove these trials, we chose the largest interval, for example, 0, 1 ðÞfor Mi, to indicate uncertainty for measuring heterogeneity."</t>
-        </is>
-      </c>
-      <c r="T839" t="inlineStr">
-        <is>
-          <t>imputation</t>
-        </is>
-      </c>
-      <c r="U839" t="inlineStr">
-        <is>
-          <t>imputation with largest interval</t>
-        </is>
-      </c>
-      <c r="V839" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="X839" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
-      </c>
       <c r="Z839" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="AA839" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AB839" t="inlineStr">
-        <is>
-          <t>I didn't come across any studies using imputation, so this might be one of very few.</t>
-        </is>
-      </c>
       <c r="AC839" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -52977,16 +53084,16 @@
         </is>
       </c>
       <c r="C840">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1037/met0000381</t>
+          <t>https://doi.org/10.1002/jrsm.1395</t>
         </is>
       </c>
       <c r="E840" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>RSM</t>
         </is>
       </c>
       <c r="F840" t="inlineStr">
@@ -53017,49 +53124,34 @@
         <v>1</v>
       </c>
       <c r="M840" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N840" t="b">
         <v>0</v>
       </c>
-      <c r="O840" t="inlineStr">
-        <is>
-          <t>Footnote</t>
-        </is>
-      </c>
       <c r="P840" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>missing proportion (per method/condition)</t>
         </is>
       </c>
       <c r="Q840" t="inlineStr">
         <is>
-          <t>"a few" but specific methods and conditions named</t>
+          <t>absolute value of converged cases per method/condition</t>
         </is>
       </c>
       <c r="R840" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="T840" t="inlineStr">
-        <is>
-          <t>additional simulations</t>
-        </is>
-      </c>
-      <c r="U840" t="inlineStr">
-        <is>
-          <t>"We removed those cases and ran the simulation until we had a total of 500 replications under those conditions."</t>
-        </is>
-      </c>
-      <c r="V840" t="inlineStr">
-        <is>
-          <t>no</t>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="S840" t="inlineStr">
+        <is>
+          <t>I guess case wise deletion, nothing else makes any sense</t>
         </is>
       </c>
       <c r="Z840" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AA840" t="inlineStr">
@@ -53069,12 +53161,12 @@
       </c>
       <c r="AB840" t="inlineStr">
         <is>
-          <t>Nice and plain example for rerunning iterations until everything converged.</t>
+          <t>This is interesting as it shows extreme cases of non-convergence. One method only converged in 3 of 1000 iterations.</t>
         </is>
       </c>
       <c r="AC840" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>medium</t>
         </is>
       </c>
     </row>
@@ -53085,16 +53177,16 @@
         </is>
       </c>
       <c r="C841">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/jrsm.1504</t>
+          <t>https://doi.org/10.1037/met0000414</t>
         </is>
       </c>
       <c r="E841" t="inlineStr">
         <is>
-          <t>RSM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F841" t="inlineStr">
@@ -53109,104 +53201,72 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I841" t="b">
+        <v>0</v>
+      </c>
+      <c r="J841" t="b">
+        <v>0</v>
+      </c>
+      <c r="K841" t="b">
+        <v>0</v>
+      </c>
+      <c r="L841" t="b">
+        <v>0</v>
+      </c>
+      <c r="M841" t="b">
+        <v>0</v>
+      </c>
+      <c r="N841" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z841" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AC841" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="B842">
+        <v>2022</v>
+      </c>
+      <c r="C842">
+        <v>5</v>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1037/met0000309</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="I842" t="b">
         <v>1</v>
-      </c>
-      <c r="J841" t="b">
-        <v>0</v>
-      </c>
-      <c r="K841" t="b">
-        <v>1</v>
-      </c>
-      <c r="L841" t="b">
-        <v>1</v>
-      </c>
-      <c r="M841" t="b">
-        <v>0</v>
-      </c>
-      <c r="N841" t="b">
-        <v>0</v>
-      </c>
-      <c r="P841" t="inlineStr">
-        <is>
-          <t>missing proportion (total)</t>
-        </is>
-      </c>
-      <c r="R841" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="S841" t="inlineStr">
-        <is>
-          <t>"A small percentage of the 4800 total scenarios (2.5%) proved computationally infeasible to run because their data generation parameters consistently produced extreme datasets for which standard metaregression estimation failed. We analyzed the remaining 4679 scenarios, representing 2388 of the 2400 possible combinations of data-generation parameters."</t>
-        </is>
-      </c>
-      <c r="T841" t="inlineStr">
-        <is>
-          <t>list-wise deletion</t>
-        </is>
-      </c>
-      <c r="V841" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="X841" t="inlineStr">
-        <is>
-          <t>reasoning</t>
-        </is>
-      </c>
-      <c r="Z841" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AC841" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>agreement</t>
-        </is>
-      </c>
-      <c r="C842">
-        <v>2</v>
-      </c>
-      <c r="D842" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1037/met0000384</t>
-        </is>
-      </c>
-      <c r="E842" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F842" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="G842" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H842" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I842" t="b">
-        <v>0</v>
       </c>
       <c r="J842" t="b">
         <v>1</v>
@@ -53218,19 +53278,14 @@
         <v>1</v>
       </c>
       <c r="M842" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N842" t="b">
         <v>0</v>
       </c>
-      <c r="O842" t="inlineStr">
-        <is>
-          <t>Plus Footnote</t>
-        </is>
-      </c>
       <c r="P842" t="inlineStr">
         <is>
-          <t>not quantified</t>
+          <t>missing proportion (per method/condition)</t>
         </is>
       </c>
       <c r="R842" t="inlineStr">
@@ -53243,24 +53298,14 @@
           <t>additional simulations</t>
         </is>
       </c>
-      <c r="U842" t="inlineStr">
-        <is>
-          <t>"Only data sets that produced converged PAF factor solutions (using a convergence threshold of .0001 and a maximum of 15,000 iterations) were included in our analyses. In other words, we continued to generate data sets until we had 1,000 suitable samples for each condition.5"</t>
-        </is>
-      </c>
       <c r="V842" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="W842" t="inlineStr">
-        <is>
-          <t>"5 Because Heywood cases are often found in factor solutions that have failed to converge (Kano, 1998), we tried to separate any confounding influence from convergence issues by subsetting only converged solutions."</t>
-        </is>
-      </c>
-      <c r="X842" t="inlineStr">
-        <is>
-          <t>reasoning</t>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="Z842" t="inlineStr">
+        <is>
+          <t>no</t>
         </is>
       </c>
       <c r="AA842" t="inlineStr">
@@ -53270,32 +53315,30 @@
       </c>
       <c r="AB842" t="inlineStr">
         <is>
-          <t>I didn't come across another example of resampling until everything converges. Simulation code in pdf file in supplemental materials.</t>
+          <t>Outcome missingness</t>
         </is>
       </c>
       <c r="AC842" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>high</t>
         </is>
       </c>
     </row>
     <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>agreement</t>
-        </is>
+      <c r="B843">
+        <v>2022</v>
       </c>
       <c r="C843">
-        <v>541</v>
+        <v>5</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/01621459.2021.1920959</t>
+          <t>https://doi.org/10.1037/met0000285</t>
         </is>
       </c>
       <c r="E843" t="inlineStr">
         <is>
-          <t>JASA</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F843" t="inlineStr">
@@ -53305,11 +53348,6 @@
       </c>
       <c r="G843" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H843" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -53331,34 +53369,22 @@
       <c r="N843" t="b">
         <v>0</v>
       </c>
-      <c r="Z843" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC843" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
     </row>
     <row r="844">
-      <c r="A844" t="inlineStr">
-        <is>
-          <t>agreement</t>
-        </is>
+      <c r="B844">
+        <v>2022</v>
       </c>
       <c r="C844">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/sim.9920</t>
+          <t>https://doi.org/10.1037/met0000297</t>
         </is>
       </c>
       <c r="E844" t="inlineStr">
         <is>
-          <t>SiM</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="F844" t="inlineStr">
@@ -53368,11 +53394,6 @@
       </c>
       <c r="G844" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H844" t="inlineStr">
-        <is>
           <t>no</t>
         </is>
       </c>
@@ -53394,197 +53415,136 @@
       <c r="N844" t="b">
         <v>0</v>
       </c>
-      <c r="Z844" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AC844" t="inlineStr">
+    </row>
+    <row r="845">
+      <c r="B845">
+        <v>2022</v>
+      </c>
+      <c r="C845">
+        <v>5</v>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1037/met0000290</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="F845" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G845" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I845" t="b">
+        <v>0</v>
+      </c>
+      <c r="J845" t="b">
+        <v>0</v>
+      </c>
+      <c r="K845" t="b">
+        <v>0</v>
+      </c>
+      <c r="L845" t="b">
+        <v>0</v>
+      </c>
+      <c r="M845" t="b">
+        <v>0</v>
+      </c>
+      <c r="N845" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="B846">
+        <v>2022</v>
+      </c>
+      <c r="C846">
+        <v>5</v>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1037/met0000292</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="F846" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="I846" t="b">
+        <v>0</v>
+      </c>
+      <c r="J846" t="b">
+        <v>0</v>
+      </c>
+      <c r="K846" t="b">
+        <v>0</v>
+      </c>
+      <c r="L846" t="b">
+        <v>0</v>
+      </c>
+      <c r="M846" t="b">
+        <v>0</v>
+      </c>
+      <c r="N846" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z846" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC846" t="inlineStr">
         <is>
           <t>high</t>
         </is>
       </c>
     </row>
-    <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>agreement</t>
-        </is>
-      </c>
-      <c r="C845">
-        <v>19</v>
-      </c>
-      <c r="D845" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/sim.9818</t>
-        </is>
-      </c>
-      <c r="E845" t="inlineStr">
-        <is>
-          <t>SiM</t>
-        </is>
-      </c>
-      <c r="F845" t="inlineStr">
+    <row r="847">
+      <c r="B847">
+        <v>2022</v>
+      </c>
+      <c r="C847">
+        <v>5</v>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1037/met0000437</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="F847" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="G845" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H845" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="I845" t="b">
-        <v>0</v>
-      </c>
-      <c r="J845" t="b">
-        <v>0</v>
-      </c>
-      <c r="K845" t="b">
-        <v>0</v>
-      </c>
-      <c r="L845" t="b">
-        <v>0</v>
-      </c>
-      <c r="M845" t="b">
-        <v>0</v>
-      </c>
-      <c r="N845" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z845" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AC845" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="inlineStr">
-        <is>
-          <t>agreement</t>
-        </is>
-      </c>
-      <c r="C846">
-        <v>2</v>
-      </c>
-      <c r="D846" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1002/jrsm.1395</t>
-        </is>
-      </c>
-      <c r="E846" t="inlineStr">
-        <is>
-          <t>RSM</t>
-        </is>
-      </c>
-      <c r="F846" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="G846" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="H846" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I846" t="b">
-        <v>0</v>
-      </c>
-      <c r="J846" t="b">
-        <v>0</v>
-      </c>
-      <c r="K846" t="b">
-        <v>1</v>
-      </c>
-      <c r="L846" t="b">
-        <v>1</v>
-      </c>
-      <c r="M846" t="b">
-        <v>1</v>
-      </c>
-      <c r="N846" t="b">
-        <v>0</v>
-      </c>
-      <c r="P846" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="Q846" t="inlineStr">
-        <is>
-          <t>absolute value of converged cases per method/condition</t>
-        </is>
-      </c>
-      <c r="R846" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="S846" t="inlineStr">
-        <is>
-          <t>I guess case wise deletion, nothing else makes any sense</t>
-        </is>
-      </c>
-      <c r="Z846" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AA846" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="AB846" t="inlineStr">
-        <is>
-          <t>This is interesting as it shows extreme cases of non-convergence. One method only converged in 3 of 1000 iterations.</t>
-        </is>
-      </c>
-      <c r="AC846" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="inlineStr">
-        <is>
-          <t>agreement</t>
-        </is>
-      </c>
-      <c r="C847">
-        <v>2</v>
-      </c>
-      <c r="D847" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1037/met0000414</t>
-        </is>
-      </c>
-      <c r="E847" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F847" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
       <c r="G847" t="inlineStr">
         <is>
           <t>yes</t>
@@ -53615,7 +53575,7 @@
       </c>
       <c r="Z847" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="AC847" t="inlineStr">
@@ -53633,7 +53593,7 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>10.1037/met0000309</t>
+          <t>https://doi.org/10.1037/met0000356</t>
         </is>
       </c>
       <c r="E848" t="inlineStr">
@@ -53653,30 +53613,35 @@
       </c>
       <c r="H848" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I848" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J848" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K848" t="b">
         <v>0</v>
       </c>
       <c r="L848" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M848" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N848" t="b">
         <v>0</v>
       </c>
-      <c r="R848" t="inlineStr">
-        <is>
-          <t>no</t>
+      <c r="Z848" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AC848" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -53689,7 +53654,7 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>10.1037/met0000285</t>
+          <t>https://doi.org/10.1037/met0000357</t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
@@ -53704,6 +53669,11 @@
       </c>
       <c r="G849" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H849" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
@@ -53724,6 +53694,16 @@
       </c>
       <c r="N849" t="b">
         <v>0</v>
+      </c>
+      <c r="Z849" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="AC849" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="850">
@@ -53735,7 +53715,7 @@
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>10.1037/met0000297</t>
+          <t>https://doi.org/10.1037/met0000283</t>
         </is>
       </c>
       <c r="E850" t="inlineStr">
@@ -53770,6 +53750,11 @@
       </c>
       <c r="N850" t="b">
         <v>0</v>
+      </c>
+      <c r="AC850" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
     <row r="851">
@@ -53781,7 +53766,7 @@
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>10.1037/met0000290</t>
+          <t>https://doi.org/10.1037/met0000295</t>
         </is>
       </c>
       <c r="E851" t="inlineStr">
@@ -53796,7 +53781,12 @@
       </c>
       <c r="G851" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="H851" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="I851" t="b">
@@ -53806,10 +53796,10 @@
         <v>0</v>
       </c>
       <c r="K851" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L851" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M851" t="b">
         <v>0</v>
@@ -53817,266 +53807,30 @@
       <c r="N851" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="852">
-      <c r="B852">
-        <v>2022</v>
-      </c>
-      <c r="C852">
-        <v>5</v>
-      </c>
-      <c r="D852" t="inlineStr">
-        <is>
-          <t>10.1037/met0000292</t>
-        </is>
-      </c>
-      <c r="E852" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F852" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="G852" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I852" t="b">
-        <v>0</v>
-      </c>
-      <c r="J852" t="b">
-        <v>0</v>
-      </c>
-      <c r="K852" t="b">
-        <v>0</v>
-      </c>
-      <c r="L852" t="b">
-        <v>0</v>
-      </c>
-      <c r="M852" t="b">
-        <v>0</v>
-      </c>
-      <c r="N852" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="853">
-      <c r="B853">
-        <v>2022</v>
-      </c>
-      <c r="C853">
-        <v>5</v>
-      </c>
-      <c r="D853" t="inlineStr">
-        <is>
-          <t>10.1037/met0000437</t>
-        </is>
-      </c>
-      <c r="E853" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F853" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="G853" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I853" t="b">
-        <v>0</v>
-      </c>
-      <c r="J853" t="b">
-        <v>0</v>
-      </c>
-      <c r="K853" t="b">
-        <v>0</v>
-      </c>
-      <c r="L853" t="b">
-        <v>0</v>
-      </c>
-      <c r="M853" t="b">
-        <v>0</v>
-      </c>
-      <c r="N853" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="854">
-      <c r="B854">
-        <v>2022</v>
-      </c>
-      <c r="C854">
-        <v>5</v>
-      </c>
-      <c r="D854" t="inlineStr">
-        <is>
-          <t>10.1037/met0000356</t>
-        </is>
-      </c>
-      <c r="E854" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F854" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="G854" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="I854" t="b">
-        <v>0</v>
-      </c>
-      <c r="J854" t="b">
-        <v>0</v>
-      </c>
-      <c r="K854" t="b">
-        <v>0</v>
-      </c>
-      <c r="L854" t="b">
-        <v>0</v>
-      </c>
-      <c r="M854" t="b">
-        <v>0</v>
-      </c>
-      <c r="N854" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="855">
-      <c r="B855">
-        <v>2022</v>
-      </c>
-      <c r="C855">
-        <v>5</v>
-      </c>
-      <c r="D855" t="inlineStr">
-        <is>
-          <t>10.1037/met0000357</t>
-        </is>
-      </c>
-      <c r="E855" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F855" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="I855" t="b">
-        <v>0</v>
-      </c>
-      <c r="J855" t="b">
-        <v>0</v>
-      </c>
-      <c r="K855" t="b">
-        <v>0</v>
-      </c>
-      <c r="L855" t="b">
-        <v>0</v>
-      </c>
-      <c r="M855" t="b">
-        <v>0</v>
-      </c>
-      <c r="N855" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="856">
-      <c r="B856">
-        <v>2022</v>
-      </c>
-      <c r="C856">
-        <v>5</v>
-      </c>
-      <c r="D856" t="inlineStr">
-        <is>
-          <t>10.1037/met0000283</t>
-        </is>
-      </c>
-      <c r="E856" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F856" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="I856" t="b">
-        <v>0</v>
-      </c>
-      <c r="J856" t="b">
-        <v>0</v>
-      </c>
-      <c r="K856" t="b">
-        <v>0</v>
-      </c>
-      <c r="L856" t="b">
-        <v>0</v>
-      </c>
-      <c r="M856" t="b">
-        <v>0</v>
-      </c>
-      <c r="N856" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="857">
-      <c r="B857">
-        <v>2022</v>
-      </c>
-      <c r="C857">
-        <v>5</v>
-      </c>
-      <c r="D857" t="inlineStr">
-        <is>
-          <t>10.1037/met0000295</t>
-        </is>
-      </c>
-      <c r="E857" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="F857" t="inlineStr">
-        <is>
-          <t>AL</t>
-        </is>
-      </c>
-      <c r="I857" t="b">
-        <v>0</v>
-      </c>
-      <c r="J857" t="b">
-        <v>0</v>
-      </c>
-      <c r="K857" t="b">
-        <v>0</v>
-      </c>
-      <c r="L857" t="b">
-        <v>0</v>
-      </c>
-      <c r="M857" t="b">
-        <v>0</v>
-      </c>
-      <c r="N857" t="b">
-        <v>0</v>
+      <c r="P851" t="inlineStr">
+        <is>
+          <t>missing proportion (per method)</t>
+        </is>
+      </c>
+      <c r="Q851" t="inlineStr">
+        <is>
+          <t>"For N = 500, convergence was slower than for the larger sample, and three replications out of 500 did not converge."</t>
+        </is>
+      </c>
+      <c r="R851" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="Z851" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="AC851" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/sim_res.xlsx
+++ b/data/sim_res.xlsx
@@ -8310,7 +8310,7 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>zero missingness</t>
+          <t>not quantified</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
@@ -52638,7 +52638,7 @@
       </c>
       <c r="P834" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>not quantified</t>
         </is>
       </c>
       <c r="Q834" t="inlineStr">
